--- a/medicine/Handicap/Gnopernicus/Gnopernicus.xlsx
+++ b/medicine/Handicap/Gnopernicus/Gnopernicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gnopernicus est une application libre de bureau GNOME qui fournit une technique d'assistance (AT Assistance Technology) pour les personnes handicapées (entre autres : non-voyants et mal-voyants).
 Pour les personnes non-voyantes, SRCore est la partie lecteur d'écran de Gnopernicus, qui lit les informations en entrée, les organise, puis les envoie vers différents périphériques possibles : Braille, audio et magnificateur.
@@ -518,13 +530,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Généralités
-Gnopernicus utilise 
+          <t>Généralités</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gnopernicus utilise 
 la bibliothèque GTK (Gimp ToolKit)
 le pont atk-bridge de la partie ATK (Accessibility ToolKit) de la bibliothèque AT-SPI.
 Le paquetage at-spi doit être installé pour que le paquetage gnopernicus fonctionne.
-Gnopernicus pour non-voyant
-Même si Gnopernicus est destiné à un utilisateur non-voyant, il est nécessaire d'installer l'interface graphique car Gnopernicus est basé sur Gnome.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gnopernicus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gnopernicus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Précisions techniques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Gnopernicus pour non-voyant</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Même si Gnopernicus est destiné à un utilisateur non-voyant, il est nécessaire d'installer l'interface graphique car Gnopernicus est basé sur Gnome.
 </t>
         </is>
       </c>
